--- a/Switches.xlsx
+++ b/Switches.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18827"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mackenzie\Desktop\V-Notching Study\0% V-Notch Dist. Scenarios\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IBM\Test Right Scalers 1.31\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -640,8 +640,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+    <sheetView topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
